--- a/Resources/Estimated Number of Lives Saved by Use of Restraints.xlsx
+++ b/Resources/Estimated Number of Lives Saved by Use of Restraints.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="17329"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="19126"/>
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="P:\NTS\2018\Q1\Federal Review\To Web Team\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/7fc1888e1acd26e6/Documents/GIT/Project1/Resources/"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:100000_{267116F9-3ABA-4E56-BFC7-031ACC921ABA}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3060" yWindow="570" windowWidth="12120" windowHeight="8700"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="25600" windowHeight="11950" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="2-31" sheetId="1" r:id="rId1"/>
@@ -31,7 +32,7 @@
     <definedName name="HTML_Title" hidden="1">"Table 2-30"</definedName>
     <definedName name="_xlnm.Print_Area" localSheetId="0">'2-31'!$A$1:$Q$25</definedName>
   </definedNames>
-  <calcPr calcId="171027"/>
+  <calcPr calcId="179017"/>
 </workbook>
 </file>
 
@@ -165,9 +166,9 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr9="http://schemas.microsoft.com/office/spreadsheetml/2016/revision9" mc:Ignorable="x14ac x16r2 xr xr9">
   <numFmts count="1">
-    <numFmt numFmtId="166" formatCode="\(\R\)\ General"/>
+    <numFmt numFmtId="164" formatCode="\(\R\)\ General"/>
   </numFmts>
   <fonts count="11" x14ac:knownFonts="1">
     <font>
@@ -325,7 +326,7 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
-    <xf numFmtId="166" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="3" fontId="3" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
@@ -348,22 +349,50 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="2">
-    <cellStyle name="Comma0" xfId="1"/>
+    <cellStyle name="Comma0" xfId="1" xr:uid="{00000000-0005-0000-0000-000000000000}"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="0"/>
-  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <dxfs count="2">
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFD7D7D7"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+      </font>
+      <fill>
+        <patternFill patternType="none">
+          <bgColor indexed="65"/>
+        </patternFill>
+      </fill>
+    </dxf>
+  </dxfs>
+  <tableStyles count="1" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16">
+    <tableStyle name="MySqlDefault" pivot="0" table="0" count="2" xr9:uid="{BEF3DDC0-5C04-4F37-9876-90A358CD91D7}">
+      <tableStyleElement type="wholeTable" dxfId="1"/>
+      <tableStyleElement type="headerRow" dxfId="0"/>
+    </tableStyle>
+  </tableStyles>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
@@ -695,56 +724,56 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <sheetPr codeName="Sheet1">
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
   <dimension ref="A1:Y25"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection sqref="A1:Y1"/>
+      <selection activeCell="A3" sqref="A3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="9.1796875" defaultRowHeight="12.5" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="29.28515625" style="9" customWidth="1"/>
-    <col min="2" max="2" width="9.5703125" style="9" customWidth="1"/>
-    <col min="3" max="3" width="5.42578125" style="9" bestFit="1" customWidth="1"/>
-    <col min="4" max="22" width="6.42578125" style="9" bestFit="1" customWidth="1"/>
-    <col min="23" max="23" width="7.85546875" style="9" customWidth="1"/>
-    <col min="24" max="24" width="6.42578125" style="9" bestFit="1" customWidth="1"/>
-    <col min="25" max="25" width="9.5703125" style="9" customWidth="1"/>
-    <col min="26" max="16384" width="9.140625" style="9"/>
+    <col min="1" max="1" width="29.26953125" style="9" customWidth="1"/>
+    <col min="2" max="2" width="9.54296875" style="9" customWidth="1"/>
+    <col min="3" max="3" width="5.453125" style="9" bestFit="1" customWidth="1"/>
+    <col min="4" max="22" width="6.453125" style="9" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="7.81640625" style="9" customWidth="1"/>
+    <col min="24" max="24" width="6.453125" style="9" bestFit="1" customWidth="1"/>
+    <col min="25" max="25" width="9.54296875" style="9" customWidth="1"/>
+    <col min="26" max="16384" width="9.1796875" style="9"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:25" ht="16.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="26" t="s">
+    <row r="1" spans="1:25" ht="16.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A1" s="28" t="s">
         <v>10</v>
       </c>
-      <c r="B1" s="26"/>
-      <c r="C1" s="26"/>
-      <c r="D1" s="26"/>
-      <c r="E1" s="26"/>
-      <c r="F1" s="26"/>
-      <c r="G1" s="26"/>
-      <c r="H1" s="26"/>
-      <c r="I1" s="26"/>
-      <c r="J1" s="26"/>
-      <c r="K1" s="26"/>
-      <c r="L1" s="26"/>
-      <c r="M1" s="26"/>
-      <c r="N1" s="26"/>
-      <c r="O1" s="26"/>
-      <c r="P1" s="26"/>
-      <c r="Q1" s="26"/>
-      <c r="R1" s="26"/>
-      <c r="S1" s="26"/>
-      <c r="T1" s="26"/>
-      <c r="U1" s="26"/>
-      <c r="V1" s="26"/>
-      <c r="W1" s="26"/>
-      <c r="X1" s="26"/>
-      <c r="Y1" s="26"/>
+      <c r="B1" s="28"/>
+      <c r="C1" s="28"/>
+      <c r="D1" s="28"/>
+      <c r="E1" s="28"/>
+      <c r="F1" s="28"/>
+      <c r="G1" s="28"/>
+      <c r="H1" s="28"/>
+      <c r="I1" s="28"/>
+      <c r="J1" s="28"/>
+      <c r="K1" s="28"/>
+      <c r="L1" s="28"/>
+      <c r="M1" s="28"/>
+      <c r="N1" s="28"/>
+      <c r="O1" s="28"/>
+      <c r="P1" s="28"/>
+      <c r="Q1" s="28"/>
+      <c r="R1" s="28"/>
+      <c r="S1" s="28"/>
+      <c r="T1" s="28"/>
+      <c r="U1" s="28"/>
+      <c r="V1" s="28"/>
+      <c r="W1" s="28"/>
+      <c r="X1" s="28"/>
+      <c r="Y1" s="28"/>
     </row>
     <row r="2" spans="1:25" s="22" customFormat="1" ht="33" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" s="3"/>
@@ -1211,59 +1240,59 @@
         <v>11274</v>
       </c>
     </row>
-    <row r="8" spans="1:25" s="20" customFormat="1" ht="12.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A8" s="27" t="s">
+    <row r="8" spans="1:25" s="20" customFormat="1" ht="13" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A8" s="26" t="s">
         <v>5</v>
       </c>
-      <c r="B8" s="27"/>
-      <c r="C8" s="27"/>
-      <c r="D8" s="27"/>
-      <c r="E8" s="27"/>
-      <c r="F8" s="27"/>
-      <c r="G8" s="27"/>
-      <c r="H8" s="27"/>
-      <c r="I8" s="27"/>
-      <c r="J8" s="27"/>
-      <c r="K8" s="27"/>
-      <c r="L8" s="27"/>
-      <c r="M8" s="27"/>
-      <c r="N8" s="27"/>
-      <c r="O8" s="27"/>
-      <c r="P8" s="27"/>
-      <c r="Q8" s="27"/>
-      <c r="R8" s="27"/>
-      <c r="S8" s="27"/>
-      <c r="T8" s="27"/>
-      <c r="U8" s="27"/>
-      <c r="V8" s="27"/>
-      <c r="W8" s="27"/>
-    </row>
-    <row r="9" spans="1:25" s="20" customFormat="1" ht="12.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A9" s="28"/>
-      <c r="B9" s="28"/>
-      <c r="C9" s="28"/>
-      <c r="D9" s="28"/>
-      <c r="E9" s="28"/>
-      <c r="F9" s="28"/>
-      <c r="G9" s="28"/>
-      <c r="H9" s="28"/>
-      <c r="I9" s="28"/>
-      <c r="J9" s="28"/>
-      <c r="K9" s="28"/>
-      <c r="L9" s="28"/>
-      <c r="M9" s="28"/>
-      <c r="N9" s="28"/>
-      <c r="O9" s="28"/>
-      <c r="P9" s="28"/>
-      <c r="Q9" s="28"/>
-      <c r="R9" s="28"/>
-      <c r="S9" s="28"/>
-      <c r="T9" s="28"/>
-      <c r="U9" s="28"/>
-      <c r="V9" s="28"/>
-      <c r="W9" s="28"/>
-    </row>
-    <row r="10" spans="1:25" s="20" customFormat="1" ht="12.95" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B8" s="26"/>
+      <c r="C8" s="26"/>
+      <c r="D8" s="26"/>
+      <c r="E8" s="26"/>
+      <c r="F8" s="26"/>
+      <c r="G8" s="26"/>
+      <c r="H8" s="26"/>
+      <c r="I8" s="26"/>
+      <c r="J8" s="26"/>
+      <c r="K8" s="26"/>
+      <c r="L8" s="26"/>
+      <c r="M8" s="26"/>
+      <c r="N8" s="26"/>
+      <c r="O8" s="26"/>
+      <c r="P8" s="26"/>
+      <c r="Q8" s="26"/>
+      <c r="R8" s="26"/>
+      <c r="S8" s="26"/>
+      <c r="T8" s="26"/>
+      <c r="U8" s="26"/>
+      <c r="V8" s="26"/>
+      <c r="W8" s="26"/>
+    </row>
+    <row r="9" spans="1:25" s="20" customFormat="1" ht="13" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A9" s="27"/>
+      <c r="B9" s="27"/>
+      <c r="C9" s="27"/>
+      <c r="D9" s="27"/>
+      <c r="E9" s="27"/>
+      <c r="F9" s="27"/>
+      <c r="G9" s="27"/>
+      <c r="H9" s="27"/>
+      <c r="I9" s="27"/>
+      <c r="J9" s="27"/>
+      <c r="K9" s="27"/>
+      <c r="L9" s="27"/>
+      <c r="M9" s="27"/>
+      <c r="N9" s="27"/>
+      <c r="O9" s="27"/>
+      <c r="P9" s="27"/>
+      <c r="Q9" s="27"/>
+      <c r="R9" s="27"/>
+      <c r="S9" s="27"/>
+      <c r="T9" s="27"/>
+      <c r="U9" s="27"/>
+      <c r="V9" s="27"/>
+      <c r="W9" s="27"/>
+    </row>
+    <row r="10" spans="1:25" s="20" customFormat="1" ht="13" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="23" t="s">
         <v>8</v>
       </c>
@@ -1290,7 +1319,7 @@
       <c r="V10" s="23"/>
       <c r="W10" s="23"/>
     </row>
-    <row r="11" spans="1:25" s="20" customFormat="1" ht="38.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:25" s="20" customFormat="1" ht="38.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="23" t="s">
         <v>9</v>
       </c>
@@ -1317,7 +1346,7 @@
       <c r="V11" s="23"/>
       <c r="W11" s="23"/>
     </row>
-    <row r="12" spans="1:25" s="20" customFormat="1" ht="12.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:25" s="20" customFormat="1" ht="13" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="23" t="s">
         <v>3</v>
       </c>
@@ -1344,7 +1373,7 @@
       <c r="V12" s="23"/>
       <c r="W12" s="23"/>
     </row>
-    <row r="13" spans="1:25" s="20" customFormat="1" ht="12.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:25" s="20" customFormat="1" ht="13" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="23"/>
       <c r="B13" s="23"/>
       <c r="C13" s="23"/>
@@ -1369,7 +1398,7 @@
       <c r="V13" s="23"/>
       <c r="W13" s="23"/>
     </row>
-    <row r="14" spans="1:25" s="20" customFormat="1" ht="12.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:25" s="20" customFormat="1" ht="13" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" s="24" t="s">
         <v>11</v>
       </c>
@@ -1396,7 +1425,7 @@
       <c r="V14" s="24"/>
       <c r="W14" s="24"/>
     </row>
-    <row r="15" spans="1:25" s="21" customFormat="1" ht="12.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:25" s="21" customFormat="1" ht="13" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A15" s="25" t="s">
         <v>13</v>
       </c>
@@ -1423,7 +1452,7 @@
       <c r="V15" s="25"/>
       <c r="W15" s="25"/>
     </row>
-    <row r="16" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A16" s="6"/>
       <c r="B16" s="6"/>
       <c r="C16" s="6"/>
@@ -1432,12 +1461,12 @@
       <c r="F16" s="6"/>
       <c r="G16" s="6"/>
     </row>
-    <row r="17" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:7" ht="13" x14ac:dyDescent="0.3">
       <c r="A17" s="1"/>
       <c r="B17" s="4"/>
       <c r="C17" s="4"/>
     </row>
-    <row r="18" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A18" s="5"/>
       <c r="B18" s="5"/>
       <c r="C18" s="5"/>
@@ -1446,7 +1475,7 @@
       <c r="F18" s="5"/>
       <c r="G18" s="5"/>
     </row>
-    <row r="19" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A19" s="5"/>
       <c r="B19" s="5"/>
       <c r="C19" s="5"/>
@@ -1455,7 +1484,7 @@
       <c r="F19" s="5"/>
       <c r="G19" s="5"/>
     </row>
-    <row r="20" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A20" s="5"/>
       <c r="B20" s="5"/>
       <c r="C20" s="5"/>
@@ -1464,12 +1493,12 @@
       <c r="F20" s="5"/>
       <c r="G20" s="5"/>
     </row>
-    <row r="21" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:7" ht="13" x14ac:dyDescent="0.3">
       <c r="A21" s="1"/>
       <c r="B21" s="4"/>
       <c r="C21" s="4"/>
     </row>
-    <row r="22" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A22" s="5"/>
       <c r="B22" s="5"/>
       <c r="C22" s="5"/>
@@ -1478,7 +1507,7 @@
       <c r="F22" s="5"/>
       <c r="G22" s="5"/>
     </row>
-    <row r="23" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A23" s="5"/>
       <c r="B23" s="5"/>
       <c r="C23" s="5"/>
@@ -1487,7 +1516,7 @@
       <c r="F23" s="5"/>
       <c r="G23" s="5"/>
     </row>
-    <row r="24" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A24" s="5"/>
       <c r="B24" s="5"/>
       <c r="C24" s="5"/>
@@ -1496,7 +1525,7 @@
       <c r="F24" s="5"/>
       <c r="G24" s="5"/>
     </row>
-    <row r="25" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A25" s="16"/>
       <c r="B25" s="16"/>
       <c r="C25" s="16"/>
@@ -1507,6 +1536,7 @@
     </row>
   </sheetData>
   <mergeCells count="9">
+    <mergeCell ref="A1:Y1"/>
     <mergeCell ref="A12:W12"/>
     <mergeCell ref="A13:W13"/>
     <mergeCell ref="A14:W14"/>
@@ -1515,7 +1545,6 @@
     <mergeCell ref="A9:W9"/>
     <mergeCell ref="A10:W10"/>
     <mergeCell ref="A11:W11"/>
-    <mergeCell ref="A1:Y1"/>
   </mergeCells>
   <phoneticPr fontId="0" type="noConversion"/>
   <printOptions horizontalCentered="1"/>
@@ -1526,6 +1555,21 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x0101002817D3A329724A479313C886C2FB1746" ma:contentTypeVersion="4" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="62a8723b96c1432a91a35108219c4d81">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="e9378d88-8176-4f71-9851-64a93c091a10" xmlns:ns3="b7325b2c-accd-4278-8079-34cb29d0c829" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="7a07d12f4bfae53195ebfca05177dd56" ns2:_="" ns3:_="">
     <xsd:import namespace="e9378d88-8176-4f71-9851-64a93c091a10"/>
@@ -1690,29 +1734,38 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
-</file>
-
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{7033BBBE-28B3-47E9-A05C-BD6BCA7ECCE1}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{D85728F0-D9D5-43AE-87EE-B5BF8D347952}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{22BF0400-BDBA-4BED-ACBD-717060DCB5FB}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{22BF0400-BDBA-4BED-ACBD-717060DCB5FB}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{D85728F0-D9D5-43AE-87EE-B5BF8D347952}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{7033BBBE-28B3-47E9-A05C-BD6BCA7ECCE1}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/2001/XMLSchema"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="e9378d88-8176-4f71-9851-64a93c091a10"/>
+    <ds:schemaRef ds:uri="b7325b2c-accd-4278-8079-34cb29d0c829"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>